--- a/Question_Set2/Programming skills/Vue.js (Vue 2).xlsx
+++ b/Question_Set2/Programming skills/Vue.js (Vue 2).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'What is the priority of hooks defined in mixins?', 'ques_type': 2, 'options': ["They're to be launched before component's hooks.", "Equal with own component's hooks.", "They're to be launched instead of component's hooks.", "They'll be overridden with component's hooks."], 'score': "They're to be launched before component's hooks."}, {'title': 'Are the results of a Vuex getter cached?', 'ques_type': 2, 'options': ['Yes, if it does not return a function, otherwise no', 'Yes, if it returns a function, otherwise no', 'Yes', 'No'], 'score': 'Yes, if it does not return a function, otherwise no'}, {'title': 'What is the concept of Hydration in Vue?', 'ques_type': 2, 'options': ['A client-side process during which Vue takes over the static HTML sent by the server and turns it into dynamic DOM that can react to client-side data changes.', 'A client-side process of mounting a server-side rendered page and executing remaining lifecycle hooks.', 'A server-side process of preparing a state snapshot that corresponds to a rendered page.', 'A server-side process of injection a client-dependent state into an initial state of an application.'], 'score': 'A client-side process during which Vue takes over the static HTML sent by the server and turns it into dynamic DOM that can react to client-side data changes.'}, {'title': 'Where can Vue filters be applied?', 'ques_type': 2, 'options': ["Mustache interpolations and 'v-bind' expressions", 'Mustache interpolations', "'v-bind' expressions", "'v-bind' and 'v-html' expressions"], 'score': "Mustache interpolations and 'v-bind' expressions"}]</t>
+    <t>questions = [
+    {
+        "title": "What is the priority of hooks defined in mixins?",
+        "ques_type": 2,
+        "options": [
+            "They're to be launched before component's hooks.",
+            "Equal with own component's hooks.",
+            "They're to be launched instead of component's hooks.",
+            "They'll be overridden with component's hooks."
+        ],
+        "score": "They're to be launched before component's hooks."
+    },
+    {
+        "title": "Are the results of a Vuex getter cached?",
+        "ques_type": 2,
+        "options": [
+            "Yes, if it does not return a function, otherwise no",
+            "Yes, if it returns a function, otherwise no",
+            "Yes",
+            "No"
+        ],
+        "score": "Yes, if it does not return a function, otherwise no"
+    },
+    {
+        "title": "What is the concept of Hydration in Vue?",
+        "ques_type": 2,
+        "options": [
+            "A client-side process during which Vue takes over the static HTML sent by the server and turns it into dynamic DOM that can react to client-side data changes.",
+            "A client-side process of mounting a server-side rendered page and executing remaining lifecycle hooks.",
+            "A server-side process of preparing a state snapshot that corresponds to a rendered page.",
+            "A server-side process of injection a client-dependent state into an initial state of an application."
+        ],
+        "score": "A client-side process during which Vue takes over the static HTML sent by the server and turns it into dynamic DOM that can react to client-side data changes."
+    },
+    {
+        "title": "Where can Vue filters be applied?",
+        "ques_type": 2,
+        "options": [
+            "Mustache interpolations and 'v-bind' expressions",
+            "Mustache interpolations",
+            "'v-bind' expressions",
+            "'v-bind' and 'v-html' expressions"
+        ],
+        "score": "Mustache interpolations and 'v-bind' expressions"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
